--- a/medicine/Bioéthique/Secular_Pro-Life/Secular_Pro-Life.xlsx
+++ b/medicine/Bioéthique/Secular_Pro-Life/Secular_Pro-Life.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Secular Pro-Life (SPL) est une organisation anti-avortement américaine. SPL plaide contre l'avortement et mène des actions de plaidoyer, y compris sur les campus universitaires. 
 </t>
@@ -511,9 +523,11 @@
           <t>Statistiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'activisme anti-avortement aux États-Unis est principalement associé à la droite religieuse. Aux États-Unis, 72% des personnes non affiliées religieusement disent que «l'avortement devrait être légal dans la plupart ou tous les cas»[1] contre 53% chez le grand public. Parmi les athées et agnostiques, 84% disent que l'avortement devrait être légal dans la plupart ou tous les cas, alors que 75% des protestants évangéliques blancs disent que l'avortement est moralement répréhensible; seules 25% des personnes non affiliées religieusement le déclarent[2]. L'Oxford Handbook of Religion and American Politics note que 22% des Américains non religieux non affiliés se décrivent comme «pro-vie sur l'avortement», tandis que seulement 12% des athées et agnostiques le sont[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'activisme anti-avortement aux États-Unis est principalement associé à la droite religieuse. Aux États-Unis, 72% des personnes non affiliées religieusement disent que «l'avortement devrait être légal dans la plupart ou tous les cas» contre 53% chez le grand public. Parmi les athées et agnostiques, 84% disent que l'avortement devrait être légal dans la plupart ou tous les cas, alors que 75% des protestants évangéliques blancs disent que l'avortement est moralement répréhensible; seules 25% des personnes non affiliées religieusement le déclarent. L'Oxford Handbook of Religion and American Politics note que 22% des Américains non religieux non affiliés se décrivent comme «pro-vie sur l'avortement», tandis que seulement 12% des athées et agnostiques le sont.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Secular Pro-Life a été fondée en 2009 mais a fait sa première apparition remarquée lors de la conférence 2012 des American Atheists. Leur présence là-bas a provoqué une certaine controverse au sein de la communauté athée[4]. 
-En février 2014, le président de Secular Pro-Life Kelsey Hazzard a prononcé un discours à l'Université de Géorgie intitulé "Pro-Life Without God"[5]. Dans la perspective de l'événement, les affiches du SPL ont été retirées à plusieurs reprises dans le but de contrecarrer la présentation d'Hazzard.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Secular Pro-Life a été fondée en 2009 mais a fait sa première apparition remarquée lors de la conférence 2012 des American Atheists. Leur présence là-bas a provoqué une certaine controverse au sein de la communauté athée. 
+En février 2014, le président de Secular Pro-Life Kelsey Hazzard a prononcé un discours à l'Université de Géorgie intitulé "Pro-Life Without God". Dans la perspective de l'événement, les affiches du SPL ont été retirées à plusieurs reprises dans le but de contrecarrer la présentation d'Hazzard.
 </t>
         </is>
       </c>
